--- a/natmiOut/OldD4/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Igf1r</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.653229259955561</v>
+        <v>10.44675466666667</v>
       </c>
       <c r="H2">
-        <v>8.653229259955561</v>
+        <v>31.340264</v>
       </c>
       <c r="I2">
-        <v>0.198188284422673</v>
+        <v>0.2092639271807731</v>
       </c>
       <c r="J2">
-        <v>0.198188284422673</v>
+        <v>0.2499877559676775</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N2">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O2">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P2">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q2">
-        <v>108.2942397123337</v>
+        <v>133.8210538286631</v>
       </c>
       <c r="R2">
-        <v>108.2942397123337</v>
+        <v>1204.389484457968</v>
       </c>
       <c r="S2">
-        <v>0.06025410804780777</v>
+        <v>0.06307557035462745</v>
       </c>
       <c r="T2">
-        <v>0.06025410804780777</v>
+        <v>0.08252610051480665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.653229259955561</v>
+        <v>10.44675466666667</v>
       </c>
       <c r="H3">
-        <v>8.653229259955561</v>
+        <v>31.340264</v>
       </c>
       <c r="I3">
-        <v>0.198188284422673</v>
+        <v>0.2092639271807731</v>
       </c>
       <c r="J3">
-        <v>0.198188284422673</v>
+        <v>0.2499877559676775</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N3">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O3">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P3">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q3">
-        <v>95.67424169893808</v>
+        <v>122.2377758283004</v>
       </c>
       <c r="R3">
-        <v>95.67424169893808</v>
+        <v>1100.139982454704</v>
       </c>
       <c r="S3">
-        <v>0.05323243518799398</v>
+        <v>0.05761587738744658</v>
       </c>
       <c r="T3">
-        <v>0.05323243518799398</v>
+        <v>0.07538280925233617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.653229259955561</v>
+        <v>10.44675466666667</v>
       </c>
       <c r="H4">
-        <v>8.653229259955561</v>
+        <v>31.340264</v>
       </c>
       <c r="I4">
-        <v>0.198188284422673</v>
+        <v>0.2092639271807731</v>
       </c>
       <c r="J4">
-        <v>0.198188284422673</v>
+        <v>0.2499877559676775</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N4">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O4">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P4">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q4">
-        <v>19.62951871197185</v>
+        <v>26.19343352036089</v>
       </c>
       <c r="R4">
-        <v>19.62951871197185</v>
+        <v>235.740901683248</v>
       </c>
       <c r="S4">
-        <v>0.01092171794676638</v>
+        <v>0.01234608241060573</v>
       </c>
       <c r="T4">
-        <v>0.01092171794676638</v>
+        <v>0.01615322750556764</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.653229259955561</v>
+        <v>10.44675466666667</v>
       </c>
       <c r="H5">
-        <v>8.653229259955561</v>
+        <v>31.340264</v>
       </c>
       <c r="I5">
-        <v>0.198188284422673</v>
+        <v>0.2092639271807731</v>
       </c>
       <c r="J5">
-        <v>0.198188284422673</v>
+        <v>0.2499877559676775</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N5">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O5">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P5">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q5">
-        <v>36.73803355046655</v>
+        <v>45.910258712808</v>
       </c>
       <c r="R5">
-        <v>36.73803355046655</v>
+        <v>413.192328415272</v>
       </c>
       <c r="S5">
-        <v>0.02044076812297605</v>
+        <v>0.02163946307840698</v>
       </c>
       <c r="T5">
-        <v>0.02044076812297605</v>
+        <v>0.02831239567164766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.653229259955561</v>
+        <v>10.44675466666667</v>
       </c>
       <c r="H6">
-        <v>8.653229259955561</v>
+        <v>31.340264</v>
       </c>
       <c r="I6">
-        <v>0.198188284422673</v>
+        <v>0.2092639271807731</v>
       </c>
       <c r="J6">
-        <v>0.198188284422673</v>
+        <v>0.2499877559676775</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0786650216608</v>
+        <v>11.08589</v>
       </c>
       <c r="N6">
-        <v>11.0786650216608</v>
+        <v>22.17178</v>
       </c>
       <c r="O6">
-        <v>0.2691342491434712</v>
+        <v>0.2608520956530235</v>
       </c>
       <c r="P6">
-        <v>0.2691342491434712</v>
+        <v>0.1904622201955989</v>
       </c>
       <c r="Q6">
-        <v>95.86622832668144</v>
+        <v>115.8115730916533</v>
       </c>
       <c r="R6">
-        <v>95.86622832668144</v>
+        <v>694.86943854992</v>
       </c>
       <c r="S6">
-        <v>0.05333925511712882</v>
+        <v>0.05458693394968638</v>
       </c>
       <c r="T6">
-        <v>0.05333925511712882</v>
+        <v>0.04761322302331944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.9354290581427</v>
+        <v>12.62111866666667</v>
       </c>
       <c r="H7">
-        <v>10.9354290581427</v>
+        <v>37.863356</v>
       </c>
       <c r="I7">
-        <v>0.2504583964380344</v>
+        <v>0.252819649917553</v>
       </c>
       <c r="J7">
-        <v>0.2504583964380344</v>
+        <v>0.3020196447561928</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N7">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O7">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P7">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q7">
-        <v>136.8557263656513</v>
+        <v>161.6742667327191</v>
       </c>
       <c r="R7">
-        <v>136.8557263656513</v>
+        <v>1455.068400594472</v>
       </c>
       <c r="S7">
-        <v>0.07614550640275661</v>
+        <v>0.07620397758105374</v>
       </c>
       <c r="T7">
-        <v>0.07614550640275661</v>
+        <v>0.099702897304372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.9354290581427</v>
+        <v>12.62111866666667</v>
       </c>
       <c r="H8">
-        <v>10.9354290581427</v>
+        <v>37.863356</v>
       </c>
       <c r="I8">
-        <v>0.2504583964380344</v>
+        <v>0.252819649917553</v>
       </c>
       <c r="J8">
-        <v>0.2504583964380344</v>
+        <v>0.3020196447561928</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N8">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O8">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P8">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q8">
-        <v>120.9073342864036</v>
+        <v>147.6800713240684</v>
       </c>
       <c r="R8">
-        <v>120.9073342864036</v>
+        <v>1329.120641916616</v>
       </c>
       <c r="S8">
-        <v>0.06727193988541995</v>
+        <v>0.0696079164098056</v>
       </c>
       <c r="T8">
-        <v>0.06727193988541995</v>
+        <v>0.09107281747854129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.9354290581427</v>
+        <v>12.62111866666667</v>
       </c>
       <c r="H9">
-        <v>10.9354290581427</v>
+        <v>37.863356</v>
       </c>
       <c r="I9">
-        <v>0.2504583964380344</v>
+        <v>0.252819649917553</v>
       </c>
       <c r="J9">
-        <v>0.2504583964380344</v>
+        <v>0.3020196447561928</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N9">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O9">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P9">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q9">
-        <v>24.80660142839614</v>
+        <v>31.64527581017688</v>
       </c>
       <c r="R9">
-        <v>24.80660142839614</v>
+        <v>284.807482291592</v>
       </c>
       <c r="S9">
-        <v>0.01380220819441471</v>
+        <v>0.01491576821171968</v>
       </c>
       <c r="T9">
-        <v>0.01380220819441471</v>
+        <v>0.01951532391661727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.9354290581427</v>
+        <v>12.62111866666667</v>
       </c>
       <c r="H10">
-        <v>10.9354290581427</v>
+        <v>37.863356</v>
       </c>
       <c r="I10">
-        <v>0.2504583964380344</v>
+        <v>0.252819649917553</v>
       </c>
       <c r="J10">
-        <v>0.2504583964380344</v>
+        <v>0.3020196447561928</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N10">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O10">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P10">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q10">
-        <v>46.42731026276503</v>
+        <v>55.465916614332</v>
       </c>
       <c r="R10">
-        <v>46.42731026276503</v>
+        <v>499.193249528988</v>
       </c>
       <c r="S10">
-        <v>0.02583180948841488</v>
+        <v>0.02614345221171651</v>
       </c>
       <c r="T10">
-        <v>0.02583180948841488</v>
+        <v>0.03420527397371172</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.9354290581427</v>
+        <v>12.62111866666667</v>
       </c>
       <c r="H11">
-        <v>10.9354290581427</v>
+        <v>37.863356</v>
       </c>
       <c r="I11">
-        <v>0.2504583964380344</v>
+        <v>0.252819649917553</v>
       </c>
       <c r="J11">
-        <v>0.2504583964380344</v>
+        <v>0.3020196447561928</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.0786650216608</v>
+        <v>11.08589</v>
       </c>
       <c r="N11">
-        <v>11.0786650216608</v>
+        <v>22.17178</v>
       </c>
       <c r="O11">
-        <v>0.2691342491434712</v>
+        <v>0.2608520956530235</v>
       </c>
       <c r="P11">
-        <v>0.2691342491434712</v>
+        <v>0.1904622201955989</v>
       </c>
       <c r="Q11">
-        <v>121.1499554032986</v>
+        <v>139.9163332156133</v>
       </c>
       <c r="R11">
-        <v>121.1499554032986</v>
+        <v>839.4979992936799</v>
       </c>
       <c r="S11">
-        <v>0.06740693246702824</v>
+        <v>0.06594853550325745</v>
       </c>
       <c r="T11">
-        <v>0.06740693246702824</v>
+        <v>0.05752333208295055</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>24.0730005189143</v>
+        <v>1.035148666666667</v>
       </c>
       <c r="H12">
-        <v>24.0730005189143</v>
+        <v>3.105446</v>
       </c>
       <c r="I12">
-        <v>0.5513533191392925</v>
+        <v>0.02073555684176186</v>
       </c>
       <c r="J12">
-        <v>0.5513533191392925</v>
+        <v>0.02477080208446235</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N12">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O12">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P12">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q12">
-        <v>301.2710296322171</v>
+        <v>13.26006878333911</v>
       </c>
       <c r="R12">
-        <v>301.2710296322171</v>
+        <v>119.340619050052</v>
       </c>
       <c r="S12">
-        <v>0.1676249560397113</v>
+        <v>0.006250035981046503</v>
       </c>
       <c r="T12">
-        <v>0.1676249560397113</v>
+        <v>0.008177351305633679</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>24.0730005189143</v>
+        <v>1.035148666666667</v>
       </c>
       <c r="H13">
-        <v>24.0730005189143</v>
+        <v>3.105446</v>
       </c>
       <c r="I13">
-        <v>0.5513533191392925</v>
+        <v>0.02073555684176186</v>
       </c>
       <c r="J13">
-        <v>0.5513533191392925</v>
+        <v>0.02477080208446235</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N13">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O13">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P13">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q13">
-        <v>266.1626083020359</v>
+        <v>12.11230422292844</v>
       </c>
       <c r="R13">
-        <v>266.1626083020359</v>
+        <v>109.010738006356</v>
       </c>
       <c r="S13">
-        <v>0.1480908920134438</v>
+        <v>0.005709045589703279</v>
       </c>
       <c r="T13">
-        <v>0.1480908920134438</v>
+        <v>0.007469536423223186</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>24.0730005189143</v>
+        <v>1.035148666666667</v>
       </c>
       <c r="H14">
-        <v>24.0730005189143</v>
+        <v>3.105446</v>
       </c>
       <c r="I14">
-        <v>0.5513533191392925</v>
+        <v>0.02073555684176186</v>
       </c>
       <c r="J14">
-        <v>0.5513533191392925</v>
+        <v>0.02477080208446235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N14">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O14">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P14">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q14">
-        <v>54.60867844171312</v>
+        <v>2.595456545996889</v>
       </c>
       <c r="R14">
-        <v>54.60867844171312</v>
+        <v>23.359108913972</v>
       </c>
       <c r="S14">
-        <v>0.0303838617817105</v>
+        <v>0.001223349370563244</v>
       </c>
       <c r="T14">
-        <v>0.0303838617817105</v>
+        <v>0.001600591997063426</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>24.0730005189143</v>
+        <v>1.035148666666667</v>
       </c>
       <c r="H15">
-        <v>24.0730005189143</v>
+        <v>3.105446</v>
       </c>
       <c r="I15">
-        <v>0.5513533191392925</v>
+        <v>0.02073555684176186</v>
       </c>
       <c r="J15">
-        <v>0.5513533191392925</v>
+        <v>0.02477080208446235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N15">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O15">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P15">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q15">
-        <v>102.2040066379582</v>
+        <v>4.549158529062</v>
       </c>
       <c r="R15">
-        <v>102.2040066379582</v>
+        <v>40.942426761558</v>
       </c>
       <c r="S15">
-        <v>0.05686554774511271</v>
+        <v>0.002144212443742868</v>
       </c>
       <c r="T15">
-        <v>0.05686554774511271</v>
+        <v>0.002805420397509592</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.035148666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.105446</v>
+      </c>
+      <c r="I16">
+        <v>0.02073555684176186</v>
+      </c>
+      <c r="J16">
+        <v>0.02477080208446235</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11.08589</v>
+      </c>
+      <c r="N16">
+        <v>22.17178</v>
+      </c>
+      <c r="O16">
+        <v>0.2608520956530235</v>
+      </c>
+      <c r="P16">
+        <v>0.1904622201955989</v>
+      </c>
+      <c r="Q16">
+        <v>11.47554425231333</v>
+      </c>
+      <c r="R16">
+        <v>68.85326551388</v>
+      </c>
+      <c r="S16">
+        <v>0.005408913456705972</v>
+      </c>
+      <c r="T16">
+        <v>0.004717901961032468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.421312333333333</v>
+      </c>
+      <c r="H17">
+        <v>4.263936999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.02847098549876299</v>
+      </c>
+      <c r="J17">
+        <v>0.03401158465728147</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.80982066666667</v>
+      </c>
+      <c r="N17">
+        <v>38.429462</v>
+      </c>
+      <c r="O17">
+        <v>0.3014163559118313</v>
+      </c>
+      <c r="P17">
+        <v>0.3301205700869484</v>
+      </c>
+      <c r="Q17">
+        <v>18.20675610132155</v>
+      </c>
+      <c r="R17">
+        <v>163.860804911894</v>
+      </c>
+      <c r="S17">
+        <v>0.008581620698255734</v>
+      </c>
+      <c r="T17">
+        <v>0.01122792371662227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.421312333333333</v>
+      </c>
+      <c r="H18">
+        <v>4.263936999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.02847098549876299</v>
+      </c>
+      <c r="J18">
+        <v>0.03401158465728147</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.70102866666667</v>
+      </c>
+      <c r="N18">
+        <v>35.103086</v>
+      </c>
+      <c r="O18">
+        <v>0.2753263697363138</v>
+      </c>
+      <c r="P18">
+        <v>0.3015460055655002</v>
+      </c>
+      <c r="Q18">
+        <v>16.63081635662022</v>
+      </c>
+      <c r="R18">
+        <v>149.677347209582</v>
+      </c>
+      <c r="S18">
+        <v>0.007838813080189648</v>
+      </c>
+      <c r="T18">
+        <v>0.01025605749635608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.421312333333333</v>
+      </c>
+      <c r="H19">
+        <v>4.263936999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.02847098549876299</v>
+      </c>
+      <c r="J19">
+        <v>0.03401158465728147</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.507327333333333</v>
+      </c>
+      <c r="N19">
+        <v>7.521982</v>
+      </c>
+      <c r="O19">
+        <v>0.05899766183753465</v>
+      </c>
+      <c r="P19">
+        <v>0.06461607466749766</v>
+      </c>
+      <c r="Q19">
+        <v>3.563695262570443</v>
+      </c>
+      <c r="R19">
+        <v>32.07325736313399</v>
+      </c>
+      <c r="S19">
+        <v>0.001679721574637372</v>
+      </c>
+      <c r="T19">
+        <v>0.002197695093774817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.421312333333333</v>
+      </c>
+      <c r="H20">
+        <v>4.263936999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.02847098549876299</v>
+      </c>
+      <c r="J20">
+        <v>0.03401158465728147</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.394691</v>
+      </c>
+      <c r="N20">
+        <v>13.184073</v>
+      </c>
+      <c r="O20">
+        <v>0.1034075168612968</v>
+      </c>
+      <c r="P20">
+        <v>0.113255129484455</v>
+      </c>
+      <c r="Q20">
+        <v>6.246228519488999</v>
+      </c>
+      <c r="R20">
+        <v>56.21605667540099</v>
+      </c>
+      <c r="S20">
+        <v>0.002944113913021071</v>
+      </c>
+      <c r="T20">
+        <v>0.003851986424331917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.421312333333333</v>
+      </c>
+      <c r="H21">
+        <v>4.263936999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.02847098549876299</v>
+      </c>
+      <c r="J21">
+        <v>0.03401158465728147</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.08589</v>
+      </c>
+      <c r="N21">
+        <v>22.17178</v>
+      </c>
+      <c r="O21">
+        <v>0.2608520956530235</v>
+      </c>
+      <c r="P21">
+        <v>0.1904622201955989</v>
+      </c>
+      <c r="Q21">
+        <v>15.75651218297666</v>
+      </c>
+      <c r="R21">
+        <v>94.53907309785998</v>
+      </c>
+      <c r="S21">
+        <v>0.00742671623265917</v>
+      </c>
+      <c r="T21">
+        <v>0.006477921926196396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>24.3970965</v>
+      </c>
+      <c r="H22">
+        <v>48.794193</v>
+      </c>
+      <c r="I22">
+        <v>0.4887098805611491</v>
+      </c>
+      <c r="J22">
+        <v>0.3892102125343858</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>12.80982066666667</v>
+      </c>
+      <c r="N22">
+        <v>38.429462</v>
+      </c>
+      <c r="O22">
+        <v>0.3014163559118313</v>
+      </c>
+      <c r="P22">
+        <v>0.3301205700869484</v>
+      </c>
+      <c r="Q22">
+        <v>312.522430952361</v>
+      </c>
+      <c r="R22">
+        <v>1875.134585714166</v>
+      </c>
+      <c r="S22">
+        <v>0.1473051512968479</v>
+      </c>
+      <c r="T22">
+        <v>0.1284862972455138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>24.3970965</v>
+      </c>
+      <c r="H23">
+        <v>48.794193</v>
+      </c>
+      <c r="I23">
+        <v>0.4887098805611491</v>
+      </c>
+      <c r="J23">
+        <v>0.3892102125343858</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.70102866666667</v>
+      </c>
+      <c r="N23">
+        <v>35.103086</v>
+      </c>
+      <c r="O23">
+        <v>0.2753263697363138</v>
+      </c>
+      <c r="P23">
+        <v>0.3015460055655002</v>
+      </c>
+      <c r="Q23">
+        <v>285.471125529933</v>
+      </c>
+      <c r="R23">
+        <v>1712.826753179598</v>
+      </c>
+      <c r="S23">
+        <v>0.1345547172691687</v>
+      </c>
+      <c r="T23">
+        <v>0.1173647849150434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>24.0730005189143</v>
-      </c>
-      <c r="H16">
-        <v>24.0730005189143</v>
-      </c>
-      <c r="I16">
-        <v>0.5513533191392925</v>
-      </c>
-      <c r="J16">
-        <v>0.5513533191392925</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>11.0786650216608</v>
-      </c>
-      <c r="N16">
-        <v>11.0786650216608</v>
-      </c>
-      <c r="O16">
-        <v>0.2691342491434712</v>
-      </c>
-      <c r="P16">
-        <v>0.2691342491434712</v>
-      </c>
-      <c r="Q16">
-        <v>266.6967088153181</v>
-      </c>
-      <c r="R16">
-        <v>266.6967088153181</v>
-      </c>
-      <c r="S16">
-        <v>0.1483880615593142</v>
-      </c>
-      <c r="T16">
-        <v>0.1483880615593142</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>24.3970965</v>
+      </c>
+      <c r="H24">
+        <v>48.794193</v>
+      </c>
+      <c r="I24">
+        <v>0.4887098805611491</v>
+      </c>
+      <c r="J24">
+        <v>0.3892102125343858</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.507327333333333</v>
+      </c>
+      <c r="N24">
+        <v>7.521982</v>
+      </c>
+      <c r="O24">
+        <v>0.05899766183753465</v>
+      </c>
+      <c r="P24">
+        <v>0.06461607466749766</v>
+      </c>
+      <c r="Q24">
+        <v>61.17150690842099</v>
+      </c>
+      <c r="R24">
+        <v>367.029041450526</v>
+      </c>
+      <c r="S24">
+        <v>0.02883274027000863</v>
+      </c>
+      <c r="T24">
+        <v>0.0251492361544745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>24.3970965</v>
+      </c>
+      <c r="H25">
+        <v>48.794193</v>
+      </c>
+      <c r="I25">
+        <v>0.4887098805611491</v>
+      </c>
+      <c r="J25">
+        <v>0.3892102125343858</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.394691</v>
+      </c>
+      <c r="N25">
+        <v>13.184073</v>
+      </c>
+      <c r="O25">
+        <v>0.1034075168612968</v>
+      </c>
+      <c r="P25">
+        <v>0.113255129484455</v>
+      </c>
+      <c r="Q25">
+        <v>107.2177004146815</v>
+      </c>
+      <c r="R25">
+        <v>643.306202488089</v>
+      </c>
+      <c r="S25">
+        <v>0.05053627521440937</v>
+      </c>
+      <c r="T25">
+        <v>0.04408005301725412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>24.3970965</v>
+      </c>
+      <c r="H26">
+        <v>48.794193</v>
+      </c>
+      <c r="I26">
+        <v>0.4887098805611491</v>
+      </c>
+      <c r="J26">
+        <v>0.3892102125343858</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>11.08589</v>
+      </c>
+      <c r="N26">
+        <v>22.17178</v>
+      </c>
+      <c r="O26">
+        <v>0.2608520956530235</v>
+      </c>
+      <c r="P26">
+        <v>0.1904622201955989</v>
+      </c>
+      <c r="Q26">
+        <v>270.463528118385</v>
+      </c>
+      <c r="R26">
+        <v>1081.85411247354</v>
+      </c>
+      <c r="S26">
+        <v>0.1274809965107146</v>
+      </c>
+      <c r="T26">
+        <v>0.07412984120210002</v>
       </c>
     </row>
   </sheetData>
